--- a/Code/Results/Cases/Case_8_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.650799177542325</v>
+        <v>0.6367511944551438</v>
       </c>
       <c r="C2">
-        <v>0.2720734670384957</v>
+        <v>0.3562347251701112</v>
       </c>
       <c r="D2">
-        <v>0.0989859112110878</v>
+        <v>0.0579411034716264</v>
       </c>
       <c r="E2">
-        <v>0.3177071614247922</v>
+        <v>0.3246281379198521</v>
       </c>
       <c r="F2">
-        <v>2.601957208354477</v>
+        <v>1.75667253025172</v>
       </c>
       <c r="G2">
-        <v>0.000832612114847029</v>
+        <v>0.02456839243560482</v>
       </c>
       <c r="H2">
-        <v>0.002110026414379851</v>
+        <v>0.0006792996168556442</v>
       </c>
       <c r="I2">
-        <v>0.009904319948642382</v>
+        <v>0.003543429476776438</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.770518754119465</v>
+        <v>1.084471294554774</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4528375946207746</v>
       </c>
       <c r="M2">
-        <v>0.9212406785595988</v>
+        <v>0.3633443585058558</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.591235266837117</v>
+        <v>0.9909029726570964</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6070001079029055</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5650364879309677</v>
+        <v>0.5563210940014756</v>
       </c>
       <c r="C3">
-        <v>0.2353866778861402</v>
+        <v>0.3071600846363367</v>
       </c>
       <c r="D3">
-        <v>0.09473705972610702</v>
+        <v>0.05604228528004374</v>
       </c>
       <c r="E3">
-        <v>0.2747564295282245</v>
+        <v>0.2826151264272667</v>
       </c>
       <c r="F3">
-        <v>2.362149171652163</v>
+        <v>1.614366733246385</v>
       </c>
       <c r="G3">
-        <v>0.0008373650996954312</v>
+        <v>0.03102658023119242</v>
       </c>
       <c r="H3">
-        <v>0.00394744543218617</v>
+        <v>0.001652966818922907</v>
       </c>
       <c r="I3">
-        <v>0.0140310864515576</v>
+        <v>0.005294434755326538</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.624675569130616</v>
+        <v>1.01645724199544</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4381639386846032</v>
       </c>
       <c r="M3">
-        <v>0.7988240689977886</v>
+        <v>0.3283662692447678</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5136114516443584</v>
+        <v>0.8612441592447055</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5277146600003277</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5124563318570097</v>
+        <v>0.506785016159057</v>
       </c>
       <c r="C4">
-        <v>0.2133202612858867</v>
+        <v>0.2774218391315628</v>
       </c>
       <c r="D4">
-        <v>0.0919965276173329</v>
+        <v>0.05480179651661166</v>
       </c>
       <c r="E4">
-        <v>0.248577590832646</v>
+        <v>0.2568654607431142</v>
       </c>
       <c r="F4">
-        <v>2.214448804172719</v>
+        <v>1.526043573700107</v>
       </c>
       <c r="G4">
-        <v>0.0008403770637337065</v>
+        <v>0.0355072526394169</v>
       </c>
       <c r="H4">
-        <v>0.005408438728530585</v>
+        <v>0.00249295192358634</v>
       </c>
       <c r="I4">
-        <v>0.01706021365288635</v>
+        <v>0.006652309352769503</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.534305146228874</v>
+        <v>0.973726016045859</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4284390010943326</v>
       </c>
       <c r="M4">
-        <v>0.7241810529129395</v>
+        <v>0.3074127608834303</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4661123858753982</v>
+        <v>0.781823944940669</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4791239653333648</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4908466994979506</v>
+        <v>0.4863942396140573</v>
       </c>
       <c r="C5">
-        <v>0.2048123192841729</v>
+        <v>0.2657478133896518</v>
       </c>
       <c r="D5">
-        <v>0.09065201921894328</v>
+        <v>0.05421637474474794</v>
       </c>
       <c r="E5">
-        <v>0.2379157589735783</v>
+        <v>0.2463481915854047</v>
       </c>
       <c r="F5">
-        <v>2.149816860119941</v>
+        <v>1.486896504415782</v>
       </c>
       <c r="G5">
-        <v>0.0008416399922072993</v>
+        <v>0.03747392408666395</v>
       </c>
       <c r="H5">
-        <v>0.006087067293231274</v>
+        <v>0.002895003974324073</v>
       </c>
       <c r="I5">
-        <v>0.01851210575933848</v>
+        <v>0.007371496992334414</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.493734761120137</v>
+        <v>0.9538469125529545</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4233805417171368</v>
       </c>
       <c r="M5">
-        <v>0.6940897228840868</v>
+        <v>0.2982570484968221</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4468321805139794</v>
+        <v>0.7496727157327427</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4593763001177678</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4870212558420519</v>
+        <v>0.4828066680738914</v>
       </c>
       <c r="C6">
-        <v>0.2038710383585141</v>
+        <v>0.2642486670232813</v>
       </c>
       <c r="D6">
-        <v>0.09018991032384349</v>
+        <v>0.05404436221026065</v>
       </c>
       <c r="E6">
-        <v>0.236104848796252</v>
+        <v>0.2445638335453992</v>
       </c>
       <c r="F6">
-        <v>2.133817350903939</v>
+        <v>1.476830222566818</v>
       </c>
       <c r="G6">
-        <v>0.0008418652082041397</v>
+        <v>0.03782825134458401</v>
       </c>
       <c r="H6">
-        <v>0.006209136453709019</v>
+        <v>0.002967484845181279</v>
       </c>
       <c r="I6">
-        <v>0.01888850384938046</v>
+        <v>0.007623574618291329</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.482678224011039</v>
+        <v>0.9478218640880272</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4214136326078659</v>
       </c>
       <c r="M6">
-        <v>0.6893612297641312</v>
+        <v>0.2958319231677891</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4436867035760201</v>
+        <v>0.7445517947871281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4561436127298819</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5115110406112535</v>
+        <v>0.5069581365897875</v>
       </c>
       <c r="C7">
-        <v>0.2144781018055113</v>
+        <v>0.2756413814486223</v>
       </c>
       <c r="D7">
-        <v>0.09132964983975</v>
+        <v>0.05426140504051036</v>
       </c>
       <c r="E7">
-        <v>0.2483146981033997</v>
+        <v>0.256718271455604</v>
       </c>
       <c r="F7">
-        <v>2.199182706956762</v>
+        <v>1.498440174992496</v>
       </c>
       <c r="G7">
-        <v>0.0008404319796924763</v>
+        <v>0.03613161342351234</v>
       </c>
       <c r="H7">
-        <v>0.005429068038349749</v>
+        <v>0.002515156295431975</v>
       </c>
       <c r="I7">
-        <v>0.01740959931743635</v>
+        <v>0.007027566397521667</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.521967027208561</v>
+        <v>0.9548063928837109</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4207830750168711</v>
       </c>
       <c r="M7">
-        <v>0.7244880880960807</v>
+        <v>0.3009097968116095</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4660003608135952</v>
+        <v>0.7803255262157336</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4786269776303342</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6203201751747827</v>
+        <v>0.6116504700888186</v>
       </c>
       <c r="C8">
-        <v>0.2610168427477504</v>
+        <v>0.3313564110544576</v>
       </c>
       <c r="D8">
-        <v>0.09668661356482744</v>
+        <v>0.05608176135123211</v>
       </c>
       <c r="E8">
-        <v>0.3026864172271289</v>
+        <v>0.3103167943213947</v>
       </c>
       <c r="F8">
-        <v>2.500186975888383</v>
+        <v>1.637748990524869</v>
       </c>
       <c r="G8">
-        <v>0.0008342804235398751</v>
+        <v>0.02912061866948967</v>
       </c>
       <c r="H8">
-        <v>0.002682560100920162</v>
+        <v>0.0009899398544535032</v>
       </c>
       <c r="I8">
-        <v>0.011606334633532</v>
+        <v>0.004565670551032852</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.704695691002087</v>
+        <v>1.014633841377886</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4297001135746754</v>
       </c>
       <c r="M8">
-        <v>0.8798461076673618</v>
+        <v>0.3345037428450865</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5646256401743912</v>
+        <v>0.9413317572563074</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5785952205077933</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8359412732006035</v>
+        <v>0.8132937750206963</v>
       </c>
       <c r="C9">
-        <v>0.3541538266774182</v>
+        <v>0.4520993041265342</v>
       </c>
       <c r="D9">
-        <v>0.1073119106941292</v>
+        <v>0.06048773670933327</v>
       </c>
       <c r="E9">
-        <v>0.4114242649187503</v>
+        <v>0.4158241854700719</v>
       </c>
       <c r="F9">
-        <v>3.114046407000046</v>
+        <v>1.983538653729681</v>
       </c>
       <c r="G9">
-        <v>0.0008228721920802488</v>
+        <v>0.0161963978497619</v>
       </c>
       <c r="H9">
-        <v>0.000128695665721601</v>
+        <v>1.066314336073404E-05</v>
       </c>
       <c r="I9">
-        <v>0.00396532801498406</v>
+        <v>0.001501556370151036</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.078352873511875</v>
+        <v>1.177787136234343</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4630791806213281</v>
       </c>
       <c r="M9">
-        <v>1.188287563918379</v>
+        <v>0.4230698752914535</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7594993340933271</v>
+        <v>1.264011664973822</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.776729111062096</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.002362841676359</v>
+        <v>0.9746649863203345</v>
       </c>
       <c r="C10">
-        <v>0.4232356957007823</v>
+        <v>0.5215523918084841</v>
       </c>
       <c r="D10">
-        <v>0.1109092271611338</v>
+        <v>0.06188629580684069</v>
       </c>
       <c r="E10">
-        <v>0.4603312759251565</v>
+        <v>0.4621972935763594</v>
       </c>
       <c r="F10">
-        <v>3.483027278968137</v>
+        <v>2.086489624155476</v>
       </c>
       <c r="G10">
-        <v>0.0008151370762831329</v>
+        <v>0.01784494868514663</v>
       </c>
       <c r="H10">
-        <v>0.0004020939518096789</v>
+        <v>0.0007990352577658122</v>
       </c>
       <c r="I10">
-        <v>0.001549009713244232</v>
+        <v>0.001097733050304583</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.288441713857608</v>
+        <v>1.198393798735765</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4504762314049131</v>
       </c>
       <c r="M10">
-        <v>1.423040982471576</v>
+        <v>0.453456154848503</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8738713420490498</v>
+        <v>1.495734072924535</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8900903665938174</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.141756232669849</v>
+        <v>1.130025421993878</v>
       </c>
       <c r="C11">
-        <v>0.4287574051267882</v>
+        <v>0.4813187379958492</v>
       </c>
       <c r="D11">
-        <v>0.08895345058492765</v>
+        <v>0.06632820575423892</v>
       </c>
       <c r="E11">
-        <v>0.2433304976834592</v>
+        <v>0.2466970605576435</v>
       </c>
       <c r="F11">
-        <v>3.001831189091178</v>
+        <v>1.610390084226125</v>
       </c>
       <c r="G11">
-        <v>0.0008135336983804924</v>
+        <v>0.0517655298094617</v>
       </c>
       <c r="H11">
-        <v>0.01884023310247329</v>
+        <v>0.01907440682730766</v>
       </c>
       <c r="I11">
-        <v>0.001815576721569734</v>
+        <v>0.001732604648850611</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.906562758192976</v>
+        <v>0.8778231628103725</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3297791060016451</v>
       </c>
       <c r="M11">
-        <v>1.562573035355626</v>
+        <v>0.3352846972616916</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6780939012211604</v>
+        <v>1.608829891533816</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6865176476779382</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.229502690166242</v>
+        <v>1.22963302446334</v>
       </c>
       <c r="C12">
-        <v>0.4165819919778073</v>
+        <v>0.442794852211648</v>
       </c>
       <c r="D12">
-        <v>0.07774166314572017</v>
+        <v>0.07771220040287119</v>
       </c>
       <c r="E12">
-        <v>0.1089829664646693</v>
+        <v>0.1130481577783016</v>
       </c>
       <c r="F12">
-        <v>2.57290066997183</v>
+        <v>1.296118562662286</v>
       </c>
       <c r="G12">
-        <v>0.0008135232508656165</v>
+        <v>0.07652880805535744</v>
       </c>
       <c r="H12">
-        <v>0.0574281519603943</v>
+        <v>0.05755037895008996</v>
       </c>
       <c r="I12">
-        <v>0.001821456414019096</v>
+        <v>0.001733306018502745</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.589985202692432</v>
+        <v>0.6820671472208488</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2599178232619295</v>
       </c>
       <c r="M12">
-        <v>1.631242593677854</v>
+        <v>0.2589980244832475</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5118058902608169</v>
+        <v>1.661847133467035</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5162244293077123</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.280541675772355</v>
+        <v>1.286003484335623</v>
       </c>
       <c r="C13">
-        <v>0.3921665964682006</v>
+        <v>0.4103562601112003</v>
       </c>
       <c r="D13">
-        <v>0.07296438904105429</v>
+        <v>0.08879270216122137</v>
       </c>
       <c r="E13">
-        <v>0.03015948448492622</v>
+        <v>0.03444099454764427</v>
       </c>
       <c r="F13">
-        <v>2.138106483122741</v>
+        <v>1.082119948788659</v>
       </c>
       <c r="G13">
-        <v>0.000814787799690686</v>
+        <v>0.07131313869006917</v>
       </c>
       <c r="H13">
-        <v>0.1131728074442293</v>
+        <v>0.1131645281163571</v>
       </c>
       <c r="I13">
-        <v>0.002018278967592657</v>
+        <v>0.001697362694241811</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.287646646548538</v>
+        <v>0.5586001245820498</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.218234939073362</v>
       </c>
       <c r="M13">
-        <v>1.649726619968419</v>
+        <v>0.2079638155427617</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.359951352180353</v>
+        <v>1.676970859379622</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3628144799391606</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.29949959658515</v>
+        <v>1.305488343954892</v>
       </c>
       <c r="C14">
-        <v>0.3701396849856735</v>
+        <v>0.3899057571978801</v>
       </c>
       <c r="D14">
-        <v>0.07335314327819731</v>
+        <v>0.09524880100308764</v>
       </c>
       <c r="E14">
-        <v>0.008064205955392589</v>
+        <v>0.01240927394650848</v>
       </c>
       <c r="F14">
-        <v>1.834518899484266</v>
+        <v>0.9668628417450691</v>
       </c>
       <c r="G14">
-        <v>0.0008162329558543536</v>
+        <v>0.05524649032685502</v>
       </c>
       <c r="H14">
-        <v>0.162594212172138</v>
+        <v>0.1624624143809399</v>
       </c>
       <c r="I14">
-        <v>0.002389360594168721</v>
+        <v>0.001773839830822688</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.085581727673805</v>
+        <v>0.496676768022553</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1983483739509708</v>
       </c>
       <c r="M14">
-        <v>1.640300591438631</v>
+        <v>0.180991260313224</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2643649185928183</v>
+        <v>1.670469413648533</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2668027085434517</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.295292721610281</v>
+        <v>1.300057342134636</v>
       </c>
       <c r="C15">
-        <v>0.3627074012211153</v>
+        <v>0.3857351902197195</v>
       </c>
       <c r="D15">
-        <v>0.07393915620410851</v>
+        <v>0.09562953359320403</v>
       </c>
       <c r="E15">
-        <v>0.006942325286850792</v>
+        <v>0.01136765979826548</v>
       </c>
       <c r="F15">
-        <v>1.751952750878772</v>
+        <v>0.9480607276306472</v>
       </c>
       <c r="G15">
-        <v>0.0008168966920484014</v>
+        <v>0.04707006384515111</v>
       </c>
       <c r="H15">
-        <v>0.1751473752678265</v>
+        <v>0.1749604079253118</v>
       </c>
       <c r="I15">
-        <v>0.002684653704340789</v>
+        <v>0.001936918447303704</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.032930152385013</v>
+        <v>0.4878838397419258</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.196004122135097</v>
       </c>
       <c r="M15">
-        <v>1.62733782161726</v>
+        <v>0.1764844886726245</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2414695445109203</v>
+        <v>1.660497536348998</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2440098459739737</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.210540168605604</v>
+        <v>1.20447321985452</v>
       </c>
       <c r="C16">
-        <v>0.3391051236581291</v>
+        <v>0.3864391095276005</v>
       </c>
       <c r="D16">
-        <v>0.07331018015142732</v>
+        <v>0.08338309961418844</v>
       </c>
       <c r="E16">
-        <v>0.005899904351641894</v>
+        <v>0.01099332441722944</v>
       </c>
       <c r="F16">
-        <v>1.685671026769484</v>
+        <v>1.039229933999863</v>
       </c>
       <c r="G16">
-        <v>0.0008199270675257267</v>
+        <v>0.02004606553532362</v>
       </c>
       <c r="H16">
-        <v>0.1626569390784169</v>
+        <v>0.1621850847171942</v>
       </c>
       <c r="I16">
-        <v>0.003760418367706464</v>
+        <v>0.002225604954220195</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.006608220106145</v>
+        <v>0.5500554731404605</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2214278267094905</v>
       </c>
       <c r="M16">
-        <v>1.521567225762226</v>
+        <v>0.1963015141436415</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2291791158341923</v>
+        <v>1.573729620289726</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2335996871830304</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.135671891740316</v>
+        <v>1.123566307902991</v>
       </c>
       <c r="C17">
-        <v>0.33274193396241</v>
+        <v>0.3946184030191944</v>
       </c>
       <c r="D17">
-        <v>0.07195892774299217</v>
+        <v>0.07377221590840577</v>
       </c>
       <c r="E17">
-        <v>0.010999316224936</v>
+        <v>0.01638453940336682</v>
       </c>
       <c r="F17">
-        <v>1.790735559219129</v>
+        <v>1.162547784013938</v>
       </c>
       <c r="G17">
-        <v>0.0008215102047323157</v>
+        <v>0.01482304894890429</v>
       </c>
       <c r="H17">
-        <v>0.1250106011860481</v>
+        <v>0.1243829584590941</v>
       </c>
       <c r="I17">
-        <v>0.004460588499048512</v>
+        <v>0.002456833614600917</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.089050148160737</v>
+        <v>0.6292434589223461</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2521984121859937</v>
       </c>
       <c r="M17">
-        <v>1.445765281468965</v>
+        <v>0.2241655040899602</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2674217298875128</v>
+        <v>1.507790537065375</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2736503570841435</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.062821070288663</v>
+        <v>1.045305301150449</v>
       </c>
       <c r="C18">
-        <v>0.3393684017504199</v>
+        <v>0.4151583249070541</v>
       </c>
       <c r="D18">
-        <v>0.07321702006817565</v>
+        <v>0.06519105961988814</v>
       </c>
       <c r="E18">
-        <v>0.05025429478259369</v>
+        <v>0.05555859944556119</v>
       </c>
       <c r="F18">
-        <v>2.081196427150701</v>
+        <v>1.369044842572123</v>
       </c>
       <c r="G18">
-        <v>0.0008218840777698356</v>
+        <v>0.01356760886213371</v>
       </c>
       <c r="H18">
-        <v>0.07208084951326299</v>
+        <v>0.07149105487783203</v>
       </c>
       <c r="I18">
-        <v>0.004376690848284959</v>
+        <v>0.002229713713173709</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.297420318740862</v>
+        <v>0.7588360572963069</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3005113937813988</v>
       </c>
       <c r="M18">
-        <v>1.386742141323737</v>
+        <v>0.2726059962049519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.365189363198283</v>
+        <v>1.456219804081456</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3741589824238005</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.997452894597842</v>
+        <v>0.9746766830804745</v>
       </c>
       <c r="C19">
-        <v>0.3585715427495586</v>
+        <v>0.449302110157106</v>
       </c>
       <c r="D19">
-        <v>0.08133230980222095</v>
+        <v>0.06047368134415976</v>
       </c>
       <c r="E19">
-        <v>0.1571178561679361</v>
+        <v>0.1618268528775246</v>
       </c>
       <c r="F19">
-        <v>2.506820683448083</v>
+        <v>1.639001882668921</v>
       </c>
       <c r="G19">
-        <v>0.0008211484393150422</v>
+        <v>0.01268162324210875</v>
       </c>
       <c r="H19">
-        <v>0.02651847344441194</v>
+        <v>0.02618093519964759</v>
       </c>
       <c r="I19">
-        <v>0.004164323222857647</v>
+        <v>0.00228829124488783</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.601596493608426</v>
+        <v>0.9285270002762473</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3624884806108284</v>
       </c>
       <c r="M19">
-        <v>1.347718329452164</v>
+        <v>0.337703654540185</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5227643284322028</v>
+        <v>1.423458585069994</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5354040144451133</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9566155430772483</v>
+        <v>0.9270914797137664</v>
       </c>
       <c r="C20">
-        <v>0.4087705863193207</v>
+        <v>0.5172114214294368</v>
       </c>
       <c r="D20">
-        <v>0.1079067965979554</v>
+        <v>0.06172095087608875</v>
       </c>
       <c r="E20">
-        <v>0.445581365892366</v>
+        <v>0.447942685525959</v>
       </c>
       <c r="F20">
-        <v>3.337680808469514</v>
+        <v>2.089124657435462</v>
       </c>
       <c r="G20">
-        <v>0.0008172583143868928</v>
+        <v>0.01208806867057</v>
       </c>
       <c r="H20">
-        <v>0.0001755803985750148</v>
+        <v>0.0004896767921258594</v>
       </c>
       <c r="I20">
-        <v>0.002828142452391269</v>
+        <v>0.002046852513089448</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.194145956296481</v>
+        <v>1.208496874770177</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4592453985929552</v>
       </c>
       <c r="M20">
-        <v>1.363329288750776</v>
+        <v>0.4514757576807966</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8429228935836335</v>
+        <v>1.443068484392967</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8607361437486389</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.074405114821985</v>
+        <v>1.059307024220374</v>
       </c>
       <c r="C21">
-        <v>0.4673369343612421</v>
+        <v>0.5240633252920759</v>
       </c>
       <c r="D21">
-        <v>0.1158593864602011</v>
+        <v>0.06261243982171116</v>
       </c>
       <c r="E21">
-        <v>0.5342359959427583</v>
+        <v>0.5358276013989354</v>
       </c>
       <c r="F21">
-        <v>3.74710177588824</v>
+        <v>1.935003478523882</v>
       </c>
       <c r="G21">
-        <v>0.0008110682654812925</v>
+        <v>0.07189838009603733</v>
       </c>
       <c r="H21">
-        <v>0.000937347466257954</v>
+        <v>0.001362517265751872</v>
       </c>
       <c r="I21">
-        <v>0.001752989428037921</v>
+        <v>0.002037201811119438</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.44848557842738</v>
+        <v>1.080846072832898</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3998358508271593</v>
       </c>
       <c r="M21">
-        <v>1.539589314884438</v>
+        <v>0.4177715131196322</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9785811699839542</v>
+        <v>1.583342012758152</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9887177398276563</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.156383637212741</v>
+        <v>1.152980963468309</v>
       </c>
       <c r="C22">
-        <v>0.503110133889777</v>
+        <v>0.5214683098016053</v>
       </c>
       <c r="D22">
-        <v>0.1201653210142481</v>
+        <v>0.06593324451425886</v>
       </c>
       <c r="E22">
-        <v>0.5762929850163943</v>
+        <v>0.5775663632506962</v>
       </c>
       <c r="F22">
-        <v>3.996497693842514</v>
+        <v>1.810467008845833</v>
       </c>
       <c r="G22">
-        <v>0.0008071561689952904</v>
+        <v>0.1598576240985423</v>
       </c>
       <c r="H22">
-        <v>0.001971366670931118</v>
+        <v>0.002236864543952333</v>
       </c>
       <c r="I22">
-        <v>0.001462943294013641</v>
+        <v>0.001897544394261708</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.602012504497566</v>
+        <v>0.9858141383448782</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3587770160622554</v>
       </c>
       <c r="M22">
-        <v>1.656925104580296</v>
+        <v>0.3897277231784386</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.052063748193923</v>
+        <v>1.673147437356533</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.055967943937901</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.113439363432548</v>
+        <v>1.10067127110608</v>
       </c>
       <c r="C23">
-        <v>0.4823887804197113</v>
+        <v>0.5287299134056695</v>
       </c>
       <c r="D23">
-        <v>0.1186441494402573</v>
+        <v>0.06352937933969649</v>
       </c>
       <c r="E23">
-        <v>0.5539777035749864</v>
+        <v>0.5550694472472415</v>
       </c>
       <c r="F23">
-        <v>3.88065360633982</v>
+        <v>1.926144566356342</v>
       </c>
       <c r="G23">
-        <v>0.0008091990623754097</v>
+        <v>0.0944317244059647</v>
       </c>
       <c r="H23">
-        <v>0.001380001183883817</v>
+        <v>0.001764680624403381</v>
       </c>
       <c r="I23">
-        <v>0.001241958602604676</v>
+        <v>0.001591186690079738</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.534275852542464</v>
+        <v>1.067632186662628</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3912509805418551</v>
       </c>
       <c r="M23">
-        <v>1.593381563402289</v>
+        <v>0.4174154539425317</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.012626537509114</v>
+        <v>1.629161042462982</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.020947908270287</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9503900478458434</v>
+        <v>0.9200240031463238</v>
       </c>
       <c r="C24">
-        <v>0.4080743927667356</v>
+        <v>0.5186823478081521</v>
       </c>
       <c r="D24">
-        <v>0.1114584425315144</v>
+        <v>0.06229666223474162</v>
       </c>
       <c r="E24">
-        <v>0.4701668267425561</v>
+        <v>0.4722976196918864</v>
       </c>
       <c r="F24">
-        <v>3.416625871404563</v>
+        <v>2.140981070017517</v>
       </c>
       <c r="G24">
-        <v>0.000817121111334234</v>
+        <v>0.01179294159134869</v>
       </c>
       <c r="H24">
-        <v>8.299810664924578E-05</v>
+        <v>0.000429131614913203</v>
       </c>
       <c r="I24">
-        <v>0.002274354183349203</v>
+        <v>0.001440460944574617</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.255408148738951</v>
+        <v>1.244525362601678</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4724508654838147</v>
       </c>
       <c r="M24">
-        <v>1.356546592175931</v>
+        <v>0.4652594757680788</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8646202066788717</v>
+        <v>1.437232718358985</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8829609000666139</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7761858931758923</v>
+        <v>0.756362990776779</v>
       </c>
       <c r="C25">
-        <v>0.3307724045497764</v>
+        <v>0.4253224744643376</v>
       </c>
       <c r="D25">
-        <v>0.1033763098070928</v>
+        <v>0.05945511576177953</v>
       </c>
       <c r="E25">
-        <v>0.3815079629487386</v>
+        <v>0.3868494066654833</v>
       </c>
       <c r="F25">
-        <v>2.921711921026429</v>
+        <v>1.898027891314825</v>
       </c>
       <c r="G25">
-        <v>0.0008259484495826428</v>
+        <v>0.01801617117503529</v>
       </c>
       <c r="H25">
-        <v>0.0004909099111385373</v>
+        <v>3.391085377257852E-05</v>
       </c>
       <c r="I25">
-        <v>0.006041676362131376</v>
+        <v>0.002575517149376871</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.956257630443616</v>
+        <v>1.137209677565693</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4556841313347064</v>
       </c>
       <c r="M25">
-        <v>1.105426842503164</v>
+        <v>0.3996819230688189</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.706790410409468</v>
+        <v>1.179949987417018</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7237269045205821</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
